--- a/output7/【河洛文讀注音-台語音標】《般若波羅蜜多心經》.xlsx
+++ b/output7/【河洛文讀注音-台語音標】《般若波羅蜜多心經》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D78E4F-5059-42BB-860E-3B303FC29634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E85682F4-2EED-4683-BA80-6985F12282D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -3739,9 +3739,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>十五音</t>
-  </si>
-  <si>
     <t>章節序號</t>
   </si>
   <si>
@@ -3785,6 +3782,9 @@
   </si>
   <si>
     <t>網頁每列字數</t>
+  </si>
+  <si>
+    <t>雅俗通</t>
   </si>
 </sst>
 </file>
@@ -4954,6 +4954,9 @@
     <xf numFmtId="0" fontId="74" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="78" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -4970,9 +4973,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7805,7 +7805,7 @@
   <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -7882,13 +7882,13 @@
     </row>
     <row r="9" spans="2:3" ht="30">
       <c r="B9" s="95" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C9" s="98"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="96" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C10" s="98" t="b">
         <v>1</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="11" spans="2:3" ht="30">
       <c r="B11" s="95" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C11" s="98">
         <v>352</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="12" spans="2:3" ht="30">
       <c r="B12" s="95" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C12" s="98">
         <v>15</v>
@@ -7912,7 +7912,7 @@
     </row>
     <row r="13" spans="2:3" ht="30">
       <c r="B13" s="95" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C13" s="99" t="s">
         <v>466</v>
@@ -7920,15 +7920,15 @@
     </row>
     <row r="14" spans="2:3" ht="30">
       <c r="B14" s="95" t="s">
+        <v>993</v>
+      </c>
+      <c r="C14" s="99" t="s">
         <v>994</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="30">
       <c r="B15" s="95" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C15" s="99" t="s">
         <v>747</v>
@@ -7936,31 +7936,31 @@
     </row>
     <row r="16" spans="2:3" ht="30">
       <c r="B16" s="95" t="s">
+        <v>996</v>
+      </c>
+      <c r="C16" s="99" t="s">
         <v>997</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
       <c r="B17" s="95" t="s">
+        <v>998</v>
+      </c>
+      <c r="C17" s="99" t="s">
         <v>999</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30">
       <c r="B18" s="95" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C18" s="99" t="s">
-        <v>988</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
       <c r="B19" s="95" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C19" s="99" t="s">
         <v>639</v>
@@ -7968,7 +7968,7 @@
     </row>
     <row r="20" spans="2:3" ht="30">
       <c r="B20" s="95" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C20" s="71">
         <v>10</v>
@@ -8641,63 +8641,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
-      <c r="D1" s="120">
+      <c r="D1" s="114">
         <f>COLUMN()</f>
         <v>4</v>
       </c>
-      <c r="E1" s="120">
+      <c r="E1" s="114">
         <f>COLUMN()</f>
         <v>5</v>
       </c>
-      <c r="F1" s="120">
+      <c r="F1" s="114">
         <f>COLUMN()</f>
         <v>6</v>
       </c>
-      <c r="G1" s="120">
+      <c r="G1" s="114">
         <f>COLUMN()</f>
         <v>7</v>
       </c>
-      <c r="H1" s="120">
+      <c r="H1" s="114">
         <f>COLUMN()</f>
         <v>8</v>
       </c>
-      <c r="I1" s="120">
+      <c r="I1" s="114">
         <f>COLUMN()</f>
         <v>9</v>
       </c>
-      <c r="J1" s="120">
+      <c r="J1" s="114">
         <f>COLUMN()</f>
         <v>10</v>
       </c>
-      <c r="K1" s="120">
+      <c r="K1" s="114">
         <f>COLUMN()</f>
         <v>11</v>
       </c>
-      <c r="L1" s="120">
+      <c r="L1" s="114">
         <f>COLUMN()</f>
         <v>12</v>
       </c>
-      <c r="M1" s="120">
+      <c r="M1" s="114">
         <f>COLUMN()</f>
         <v>13</v>
       </c>
-      <c r="N1" s="120">
+      <c r="N1" s="114">
         <f>COLUMN()</f>
         <v>14</v>
       </c>
-      <c r="O1" s="120">
+      <c r="O1" s="114">
         <f>COLUMN()</f>
         <v>15</v>
       </c>
-      <c r="P1" s="120">
+      <c r="P1" s="114">
         <f>COLUMN()</f>
         <v>16</v>
       </c>
-      <c r="Q1" s="120">
+      <c r="Q1" s="114">
         <f>COLUMN()</f>
         <v>17</v>
       </c>
-      <c r="R1" s="120">
+      <c r="R1" s="114">
         <f>COLUMN()</f>
         <v>18</v>
       </c>
@@ -8745,7 +8745,7 @@
       <c r="Q3" s="109"/>
       <c r="R3" s="109"/>
       <c r="T3" s="83"/>
-      <c r="V3" s="114" t="s">
+      <c r="V3" s="115" t="s">
         <v>981</v>
       </c>
     </row>
@@ -8795,7 +8795,7 @@
         <v>765</v>
       </c>
       <c r="S4" s="84"/>
-      <c r="V4" s="115"/>
+      <c r="V4" s="116"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="55">
@@ -8847,7 +8847,7 @@
         <v>580</v>
       </c>
       <c r="S5" s="85"/>
-      <c r="V5" s="115"/>
+      <c r="V5" s="116"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="56"/>
@@ -8896,7 +8896,7 @@
         <v>765</v>
       </c>
       <c r="S6" s="86"/>
-      <c r="V6" s="115"/>
+      <c r="V6" s="116"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="53"/>
@@ -8919,7 +8919,7 @@
       <c r="Q7" s="109"/>
       <c r="R7" s="109"/>
       <c r="S7" s="62"/>
-      <c r="V7" s="115"/>
+      <c r="V7" s="116"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="54"/>
@@ -8961,7 +8961,7 @@
       <c r="Q8" s="108"/>
       <c r="R8" s="108"/>
       <c r="S8" s="84"/>
-      <c r="V8" s="115"/>
+      <c r="V8" s="116"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="55">
@@ -9017,7 +9017,7 @@
       </c>
       <c r="S9" s="85"/>
       <c r="T9" s="83"/>
-      <c r="V9" s="115"/>
+      <c r="V9" s="116"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="56"/>
@@ -9059,7 +9059,7 @@
       <c r="Q10" s="76"/>
       <c r="R10" s="76"/>
       <c r="S10" s="87"/>
-      <c r="V10" s="115"/>
+      <c r="V10" s="116"/>
     </row>
     <row r="11" spans="2:22" s="62" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="61"/>
@@ -9079,7 +9079,7 @@
       <c r="P11" s="74"/>
       <c r="Q11" s="74"/>
       <c r="R11" s="74"/>
-      <c r="V11" s="115"/>
+      <c r="V11" s="116"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="54"/>
@@ -9099,7 +9099,7 @@
       <c r="Q12" s="75"/>
       <c r="R12" s="75"/>
       <c r="S12" s="84"/>
-      <c r="V12" s="115"/>
+      <c r="V12" s="116"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="55">
@@ -9126,7 +9126,7 @@
       <c r="Q13" s="88"/>
       <c r="R13" s="88"/>
       <c r="S13" s="85"/>
-      <c r="V13" s="115"/>
+      <c r="V13" s="116"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="56"/>
@@ -9146,7 +9146,7 @@
       <c r="Q14" s="76"/>
       <c r="R14" s="76"/>
       <c r="S14" s="87"/>
-      <c r="V14" s="115"/>
+      <c r="V14" s="116"/>
     </row>
     <row r="15" spans="2:22" s="63" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="59"/>
@@ -9168,7 +9168,7 @@
       <c r="P15" s="109"/>
       <c r="Q15" s="109"/>
       <c r="R15" s="109"/>
-      <c r="V15" s="115"/>
+      <c r="V15" s="116"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="54"/>
@@ -9212,7 +9212,7 @@
         <v>778</v>
       </c>
       <c r="S16" s="84"/>
-      <c r="V16" s="115"/>
+      <c r="V16" s="116"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="55">
@@ -9265,7 +9265,7 @@
         <v>594</v>
       </c>
       <c r="S17" s="85"/>
-      <c r="V17" s="115"/>
+      <c r="V17" s="116"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="56"/>
@@ -9309,7 +9309,7 @@
         <v>778</v>
       </c>
       <c r="S18" s="87"/>
-      <c r="V18" s="115"/>
+      <c r="V18" s="116"/>
     </row>
     <row r="19" spans="2:22" s="63" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="59"/>
@@ -9329,7 +9329,7 @@
       <c r="P19" s="109"/>
       <c r="Q19" s="109"/>
       <c r="R19" s="109"/>
-      <c r="V19" s="115"/>
+      <c r="V19" s="116"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="54"/>
@@ -9373,7 +9373,7 @@
         <v>784</v>
       </c>
       <c r="S20" s="84"/>
-      <c r="V20" s="115"/>
+      <c r="V20" s="116"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="55">
@@ -9426,7 +9426,7 @@
         <v>599</v>
       </c>
       <c r="S21" s="85"/>
-      <c r="V21" s="115"/>
+      <c r="V21" s="116"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="56"/>
@@ -9470,7 +9470,7 @@
         <v>784</v>
       </c>
       <c r="S22" s="87"/>
-      <c r="V22" s="116"/>
+      <c r="V22" s="117"/>
     </row>
     <row r="23" spans="2:22" s="63" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="59"/>
@@ -15417,43 +15417,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="187" priority="39">
+    <cfRule type="expression" dxfId="187" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="185" priority="37">
+    <cfRule type="expression" dxfId="185" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="183" priority="35">
+    <cfRule type="expression" dxfId="183" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="181" priority="49">
+    <cfRule type="expression" dxfId="181" priority="50">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="49">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="50">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="179" priority="33">
+    <cfRule type="expression" dxfId="179" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
@@ -15465,19 +15465,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="175" priority="29">
+    <cfRule type="expression" dxfId="175" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="173" priority="27">
+    <cfRule type="expression" dxfId="173" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -15489,19 +15489,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="169" priority="23">
+    <cfRule type="expression" dxfId="169" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="167" priority="21">
+    <cfRule type="expression" dxfId="167" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -15513,35 +15513,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="163" priority="17">
+    <cfRule type="expression" dxfId="163" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="161" priority="15">
+    <cfRule type="expression" dxfId="161" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="159" priority="13">
+    <cfRule type="expression" dxfId="159" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="157" priority="11">
+    <cfRule type="expression" dxfId="157" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -15553,11 +15553,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="153" priority="7">
+    <cfRule type="expression" dxfId="153" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
@@ -17731,7 +17731,7 @@
       <c r="Q3" s="74"/>
       <c r="R3" s="74"/>
       <c r="T3" s="83"/>
-      <c r="V3" s="114" t="s">
+      <c r="V3" s="115" t="s">
         <v>195</v>
       </c>
     </row>
@@ -17773,7 +17773,7 @@
       <c r="Q4" s="75"/>
       <c r="R4" s="75"/>
       <c r="S4" s="84"/>
-      <c r="V4" s="115"/>
+      <c r="V4" s="116"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="55">
@@ -17815,7 +17815,7 @@
       <c r="Q5" s="88"/>
       <c r="R5" s="88"/>
       <c r="S5" s="85"/>
-      <c r="V5" s="115"/>
+      <c r="V5" s="116"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="56"/>
@@ -17856,7 +17856,7 @@
       <c r="Q6" s="76"/>
       <c r="R6" s="76"/>
       <c r="S6" s="86"/>
-      <c r="V6" s="115"/>
+      <c r="V6" s="116"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="53"/>
@@ -17877,7 +17877,7 @@
       <c r="Q7" s="74"/>
       <c r="R7" s="74"/>
       <c r="S7" s="62"/>
-      <c r="V7" s="115"/>
+      <c r="V7" s="116"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="54"/>
@@ -17897,7 +17897,7 @@
       <c r="Q8" s="75"/>
       <c r="R8" s="75"/>
       <c r="S8" s="84"/>
-      <c r="V8" s="115"/>
+      <c r="V8" s="116"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="55">
@@ -17921,7 +17921,7 @@
       <c r="R9" s="88"/>
       <c r="S9" s="85"/>
       <c r="T9" s="83"/>
-      <c r="V9" s="115"/>
+      <c r="V9" s="116"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="56"/>
@@ -17941,7 +17941,7 @@
       <c r="Q10" s="76"/>
       <c r="R10" s="76"/>
       <c r="S10" s="87"/>
-      <c r="V10" s="115"/>
+      <c r="V10" s="116"/>
       <c r="AA10" s="1" t="s">
         <v>174</v>
       </c>
@@ -17966,7 +17966,7 @@
       <c r="P11" s="74"/>
       <c r="Q11" s="74"/>
       <c r="R11" s="74"/>
-      <c r="V11" s="115"/>
+      <c r="V11" s="116"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="54"/>
@@ -18010,7 +18010,7 @@
         <v>312</v>
       </c>
       <c r="S12" s="84"/>
-      <c r="V12" s="115"/>
+      <c r="V12" s="116"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="55">
@@ -18063,7 +18063,7 @@
         <v>211</v>
       </c>
       <c r="S13" s="85"/>
-      <c r="V13" s="115"/>
+      <c r="V13" s="116"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="56"/>
@@ -18107,7 +18107,7 @@
         <v>491</v>
       </c>
       <c r="S14" s="87"/>
-      <c r="V14" s="115"/>
+      <c r="V14" s="116"/>
     </row>
     <row r="15" spans="2:29" s="63" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="59"/>
@@ -18127,7 +18127,7 @@
       <c r="P15" s="74"/>
       <c r="Q15" s="74"/>
       <c r="R15" s="74"/>
-      <c r="V15" s="115"/>
+      <c r="V15" s="116"/>
       <c r="AC15" s="63" t="s">
         <v>174</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v>275</v>
       </c>
       <c r="S16" s="84"/>
-      <c r="V16" s="115"/>
+      <c r="V16" s="116"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="55">
@@ -18231,7 +18231,7 @@
         <v>216</v>
       </c>
       <c r="S17" s="85"/>
-      <c r="V17" s="115"/>
+      <c r="V17" s="116"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="56"/>
@@ -18279,7 +18279,7 @@
         <v>496</v>
       </c>
       <c r="S18" s="87"/>
-      <c r="V18" s="115"/>
+      <c r="V18" s="116"/>
     </row>
     <row r="19" spans="2:22" s="63" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="59"/>
@@ -18303,7 +18303,7 @@
       </c>
       <c r="Q19" s="74"/>
       <c r="R19" s="74"/>
-      <c r="V19" s="115"/>
+      <c r="V19" s="116"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="54"/>
@@ -18347,7 +18347,7 @@
       </c>
       <c r="R20" s="75"/>
       <c r="S20" s="84"/>
-      <c r="V20" s="115"/>
+      <c r="V20" s="116"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="55">
@@ -18400,7 +18400,7 @@
         <v>206</v>
       </c>
       <c r="S21" s="85"/>
-      <c r="V21" s="115"/>
+      <c r="V21" s="116"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="56"/>
@@ -18444,7 +18444,7 @@
       </c>
       <c r="R22" s="76"/>
       <c r="S22" s="87"/>
-      <c r="V22" s="116"/>
+      <c r="V22" s="117"/>
     </row>
     <row r="23" spans="2:22" s="63" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="59"/>
@@ -23453,43 +23453,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="139" priority="39">
+    <cfRule type="expression" dxfId="139" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="137" priority="37">
+    <cfRule type="expression" dxfId="137" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="135" priority="35">
+    <cfRule type="expression" dxfId="135" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="133" priority="47">
+    <cfRule type="expression" dxfId="133" priority="48">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="47">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="48">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="131" priority="33">
+    <cfRule type="expression" dxfId="131" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
@@ -23501,19 +23501,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="127" priority="29">
+    <cfRule type="expression" dxfId="127" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="125" priority="27">
+    <cfRule type="expression" dxfId="125" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -23525,19 +23525,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="121" priority="23">
+    <cfRule type="expression" dxfId="121" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="119" priority="21">
+    <cfRule type="expression" dxfId="119" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -23549,35 +23549,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="115" priority="17">
+    <cfRule type="expression" dxfId="115" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="113" priority="15">
+    <cfRule type="expression" dxfId="113" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="111" priority="13">
+    <cfRule type="expression" dxfId="111" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="109" priority="11">
+    <cfRule type="expression" dxfId="109" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -23589,11 +23589,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="105" priority="7">
+    <cfRule type="expression" dxfId="105" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
@@ -23697,7 +23697,7 @@
       <c r="Q3" s="74"/>
       <c r="R3" s="74"/>
       <c r="T3" s="83"/>
-      <c r="V3" s="114" t="s">
+      <c r="V3" s="115" t="s">
         <v>195</v>
       </c>
     </row>
@@ -23739,7 +23739,7 @@
       <c r="Q4" s="75"/>
       <c r="R4" s="75"/>
       <c r="S4" s="84"/>
-      <c r="V4" s="115"/>
+      <c r="V4" s="116"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="55">
@@ -23781,7 +23781,7 @@
       <c r="Q5" s="88"/>
       <c r="R5" s="88"/>
       <c r="S5" s="85"/>
-      <c r="V5" s="115"/>
+      <c r="V5" s="116"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="56"/>
@@ -23822,7 +23822,7 @@
       <c r="Q6" s="76"/>
       <c r="R6" s="76"/>
       <c r="S6" s="86"/>
-      <c r="V6" s="115"/>
+      <c r="V6" s="116"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="53"/>
@@ -23843,7 +23843,7 @@
       <c r="Q7" s="74"/>
       <c r="R7" s="74"/>
       <c r="S7" s="62"/>
-      <c r="V7" s="115"/>
+      <c r="V7" s="116"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="54"/>
@@ -23863,7 +23863,7 @@
       <c r="Q8" s="75"/>
       <c r="R8" s="75"/>
       <c r="S8" s="84"/>
-      <c r="V8" s="115"/>
+      <c r="V8" s="116"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="55">
@@ -23887,7 +23887,7 @@
       <c r="R9" s="88"/>
       <c r="S9" s="85"/>
       <c r="T9" s="83"/>
-      <c r="V9" s="115"/>
+      <c r="V9" s="116"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="56"/>
@@ -23907,7 +23907,7 @@
       <c r="Q10" s="76"/>
       <c r="R10" s="76"/>
       <c r="S10" s="87"/>
-      <c r="V10" s="115"/>
+      <c r="V10" s="116"/>
       <c r="AA10" s="1" t="s">
         <v>174</v>
       </c>
@@ -23932,7 +23932,7 @@
       <c r="P11" s="74"/>
       <c r="Q11" s="74"/>
       <c r="R11" s="74"/>
-      <c r="V11" s="115"/>
+      <c r="V11" s="116"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="54"/>
@@ -23976,7 +23976,7 @@
         <v>312</v>
       </c>
       <c r="S12" s="84"/>
-      <c r="V12" s="115"/>
+      <c r="V12" s="116"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="55">
@@ -24029,7 +24029,7 @@
         <v>211</v>
       </c>
       <c r="S13" s="85"/>
-      <c r="V13" s="115"/>
+      <c r="V13" s="116"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="56"/>
@@ -24073,7 +24073,7 @@
         <v>342</v>
       </c>
       <c r="S14" s="87"/>
-      <c r="V14" s="115"/>
+      <c r="V14" s="116"/>
     </row>
     <row r="15" spans="2:29" s="63" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="59"/>
@@ -24093,7 +24093,7 @@
       <c r="P15" s="74"/>
       <c r="Q15" s="74"/>
       <c r="R15" s="74"/>
-      <c r="V15" s="115"/>
+      <c r="V15" s="116"/>
       <c r="AC15" s="63" t="s">
         <v>174</v>
       </c>
@@ -24144,7 +24144,7 @@
         <v>275</v>
       </c>
       <c r="S16" s="84"/>
-      <c r="V16" s="115"/>
+      <c r="V16" s="116"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="55">
@@ -24197,7 +24197,7 @@
         <v>216</v>
       </c>
       <c r="S17" s="85"/>
-      <c r="V17" s="115"/>
+      <c r="V17" s="116"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="56"/>
@@ -24245,7 +24245,7 @@
         <v>348</v>
       </c>
       <c r="S18" s="87"/>
-      <c r="V18" s="115"/>
+      <c r="V18" s="116"/>
     </row>
     <row r="19" spans="2:22" s="63" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="59"/>
@@ -24269,7 +24269,7 @@
       </c>
       <c r="Q19" s="74"/>
       <c r="R19" s="74"/>
-      <c r="V19" s="115"/>
+      <c r="V19" s="116"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="54"/>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="R20" s="75"/>
       <c r="S20" s="84"/>
-      <c r="V20" s="115"/>
+      <c r="V20" s="116"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="55">
@@ -24366,7 +24366,7 @@
         <v>206</v>
       </c>
       <c r="S21" s="85"/>
-      <c r="V21" s="115"/>
+      <c r="V21" s="116"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="56"/>
@@ -24410,7 +24410,7 @@
       </c>
       <c r="R22" s="76"/>
       <c r="S22" s="87"/>
-      <c r="V22" s="116"/>
+      <c r="V22" s="117"/>
     </row>
     <row r="23" spans="2:22" s="63" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="59"/>
@@ -29419,43 +29419,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="91" priority="39">
+    <cfRule type="expression" dxfId="91" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="89" priority="37">
+    <cfRule type="expression" dxfId="89" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="87" priority="35">
+    <cfRule type="expression" dxfId="87" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="85" priority="47">
+    <cfRule type="expression" dxfId="85" priority="48">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="47">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="48">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="83" priority="33">
+    <cfRule type="expression" dxfId="83" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
@@ -29467,19 +29467,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="79" priority="29">
+    <cfRule type="expression" dxfId="79" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="77" priority="27">
+    <cfRule type="expression" dxfId="77" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -29491,19 +29491,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="73" priority="23">
+    <cfRule type="expression" dxfId="73" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="71" priority="21">
+    <cfRule type="expression" dxfId="71" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -29515,35 +29515,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="67" priority="17">
+    <cfRule type="expression" dxfId="67" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="65" priority="15">
+    <cfRule type="expression" dxfId="65" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="63" priority="13">
+    <cfRule type="expression" dxfId="63" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="61" priority="11">
+    <cfRule type="expression" dxfId="61" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -29555,11 +29555,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="57" priority="7">
+    <cfRule type="expression" dxfId="57" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
@@ -29663,7 +29663,7 @@
       <c r="Q3" s="74"/>
       <c r="R3" s="74"/>
       <c r="T3" s="83"/>
-      <c r="V3" s="114" t="s">
+      <c r="V3" s="115" t="s">
         <v>195</v>
       </c>
     </row>
@@ -29705,7 +29705,7 @@
       <c r="Q4" s="75"/>
       <c r="R4" s="75"/>
       <c r="S4" s="84"/>
-      <c r="V4" s="115"/>
+      <c r="V4" s="116"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="55">
@@ -29747,7 +29747,7 @@
       <c r="Q5" s="88"/>
       <c r="R5" s="88"/>
       <c r="S5" s="85"/>
-      <c r="V5" s="115"/>
+      <c r="V5" s="116"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="56"/>
@@ -29788,7 +29788,7 @@
       <c r="Q6" s="76"/>
       <c r="R6" s="76"/>
       <c r="S6" s="86"/>
-      <c r="V6" s="115"/>
+      <c r="V6" s="116"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="53"/>
@@ -29809,7 +29809,7 @@
       <c r="Q7" s="74"/>
       <c r="R7" s="74"/>
       <c r="S7" s="62"/>
-      <c r="V7" s="115"/>
+      <c r="V7" s="116"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="54"/>
@@ -29829,7 +29829,7 @@
       <c r="Q8" s="75"/>
       <c r="R8" s="75"/>
       <c r="S8" s="84"/>
-      <c r="V8" s="115"/>
+      <c r="V8" s="116"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="55">
@@ -29853,7 +29853,7 @@
       <c r="R9" s="88"/>
       <c r="S9" s="85"/>
       <c r="T9" s="83"/>
-      <c r="V9" s="115"/>
+      <c r="V9" s="116"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="56"/>
@@ -29873,7 +29873,7 @@
       <c r="Q10" s="76"/>
       <c r="R10" s="76"/>
       <c r="S10" s="87"/>
-      <c r="V10" s="115"/>
+      <c r="V10" s="116"/>
     </row>
     <row r="11" spans="2:29" s="62" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="61"/>
@@ -29895,7 +29895,7 @@
       <c r="P11" s="74"/>
       <c r="Q11" s="74"/>
       <c r="R11" s="74"/>
-      <c r="V11" s="115"/>
+      <c r="V11" s="116"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="54"/>
@@ -29939,7 +29939,7 @@
         <v>312</v>
       </c>
       <c r="S12" s="84"/>
-      <c r="V12" s="115"/>
+      <c r="V12" s="116"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="55">
@@ -29992,7 +29992,7 @@
         <v>211</v>
       </c>
       <c r="S13" s="85"/>
-      <c r="V13" s="115"/>
+      <c r="V13" s="116"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="56"/>
@@ -30036,7 +30036,7 @@
         <v>409</v>
       </c>
       <c r="S14" s="87"/>
-      <c r="V14" s="115"/>
+      <c r="V14" s="116"/>
     </row>
     <row r="15" spans="2:29" s="63" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="59"/>
@@ -30056,7 +30056,7 @@
       <c r="P15" s="74"/>
       <c r="Q15" s="74"/>
       <c r="R15" s="74"/>
-      <c r="V15" s="115"/>
+      <c r="V15" s="116"/>
       <c r="AC15" s="63" t="s">
         <v>174</v>
       </c>
@@ -30107,7 +30107,7 @@
         <v>275</v>
       </c>
       <c r="S16" s="84"/>
-      <c r="V16" s="115"/>
+      <c r="V16" s="116"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="55">
@@ -30160,7 +30160,7 @@
         <v>216</v>
       </c>
       <c r="S17" s="85"/>
-      <c r="V17" s="115"/>
+      <c r="V17" s="116"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="56"/>
@@ -30208,7 +30208,7 @@
         <v>415</v>
       </c>
       <c r="S18" s="87"/>
-      <c r="V18" s="115"/>
+      <c r="V18" s="116"/>
     </row>
     <row r="19" spans="2:22" s="63" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="59"/>
@@ -30230,7 +30230,7 @@
       </c>
       <c r="Q19" s="74"/>
       <c r="R19" s="74"/>
-      <c r="V19" s="115"/>
+      <c r="V19" s="116"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="54"/>
@@ -30274,7 +30274,7 @@
       </c>
       <c r="R20" s="75"/>
       <c r="S20" s="84"/>
-      <c r="V20" s="115"/>
+      <c r="V20" s="116"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="55">
@@ -30327,7 +30327,7 @@
         <v>206</v>
       </c>
       <c r="S21" s="85"/>
-      <c r="V21" s="115"/>
+      <c r="V21" s="116"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="56"/>
@@ -30371,7 +30371,7 @@
       </c>
       <c r="R22" s="76"/>
       <c r="S22" s="87"/>
-      <c r="V22" s="116"/>
+      <c r="V22" s="117"/>
     </row>
     <row r="23" spans="2:22" s="63" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="59"/>
@@ -35370,27 +35370,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="45" priority="37">
+    <cfRule type="expression" dxfId="45" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="43" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="33">
+    <cfRule type="expression" dxfId="41" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
@@ -35402,27 +35402,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="45">
+    <cfRule type="expression" dxfId="37" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="45">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="46">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="35" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="33" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
@@ -35434,19 +35434,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="29" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
@@ -35458,19 +35458,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="23" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="21" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
@@ -35482,11 +35482,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="17" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
@@ -35498,11 +35498,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -35522,11 +35522,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
@@ -35615,7 +35615,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="118" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -35633,7 +35633,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="118" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -35658,7 +35658,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -35678,7 +35678,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="118"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -35700,7 +35700,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -35716,7 +35716,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="118"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -35738,7 +35738,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="118"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -35754,7 +35754,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="118"/>
+      <c r="I8" s="119"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -35776,7 +35776,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="118"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -35792,7 +35792,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="118"/>
+      <c r="I9" s="119"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -35814,7 +35814,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -35830,7 +35830,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="119"/>
+      <c r="I10" s="120"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -35853,7 +35853,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="118" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -35871,7 +35871,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="117" t="s">
+      <c r="I11" s="118" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -35895,7 +35895,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -35915,7 +35915,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="118"/>
+      <c r="I12" s="119"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -35935,7 +35935,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="118"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -35949,7 +35949,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="118"/>
+      <c r="I13" s="119"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -35969,7 +35969,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="118"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -35983,7 +35983,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="118"/>
+      <c r="I14" s="119"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -36003,7 +36003,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -36017,7 +36017,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="118"/>
+      <c r="I15" s="119"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -36037,7 +36037,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -36051,7 +36051,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="119"/>
+      <c r="I16" s="120"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
